--- a/modelos/OBACER4421132/OBACER4421132_Sell Out_metricas.xlsx
+++ b/modelos/OBACER4421132/OBACER4421132_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45033</v>
       </c>
       <c r="B2" t="n">
-        <v>76.8654628893829</v>
+        <v>76.86546288955698</v>
       </c>
       <c r="C2" t="n">
-        <v>58.96715406174381</v>
+        <v>58.04536247870207</v>
       </c>
       <c r="D2" t="n">
-        <v>95.26233514350604</v>
+        <v>94.99593430739536</v>
       </c>
       <c r="E2" t="n">
         <v>84</v>
@@ -496,13 +496,13 @@
         <v>45040</v>
       </c>
       <c r="B3" t="n">
-        <v>77.80842107856775</v>
+        <v>77.80842107856594</v>
       </c>
       <c r="C3" t="n">
-        <v>59.66481743247736</v>
+        <v>58.41139869017385</v>
       </c>
       <c r="D3" t="n">
-        <v>97.63171909937914</v>
+        <v>95.33277238036386</v>
       </c>
       <c r="E3" t="n">
         <v>44</v>
@@ -516,13 +516,13 @@
         <v>45047</v>
       </c>
       <c r="B4" t="n">
-        <v>72.92754824292486</v>
+        <v>72.92754824292498</v>
       </c>
       <c r="C4" t="n">
-        <v>52.97493801667173</v>
+        <v>54.66148490722961</v>
       </c>
       <c r="D4" t="n">
-        <v>93.48056024293629</v>
+        <v>92.53061885099542</v>
       </c>
       <c r="E4" t="n">
         <v>91</v>
@@ -536,13 +536,13 @@
         <v>45055</v>
       </c>
       <c r="B5" t="n">
-        <v>55.37767203822549</v>
+        <v>55.37767203822306</v>
       </c>
       <c r="C5" t="n">
-        <v>36.55552571154145</v>
+        <v>35.61910579133785</v>
       </c>
       <c r="D5" t="n">
-        <v>73.52119412660402</v>
+        <v>74.50529349831635</v>
       </c>
       <c r="E5" t="n">
         <v>94</v>
@@ -617,22 +617,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>506.8414893734417</v>
+        <v>506.8414893725715</v>
       </c>
       <c r="C2" t="n">
-        <v>22.51314037120192</v>
+        <v>22.51314037118259</v>
       </c>
       <c r="D2" t="n">
-        <v>19.67180331542</v>
+        <v>19.67180331536132</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3506355142968465</v>
+        <v>0.3506355142961416</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1985983709568697</v>
+        <v>0.1985983709568683</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2881010609607011</v>
+        <v>0.2881010609599399</v>
       </c>
       <c r="H2" t="n">
         <v>0.6666666666666667</v>
@@ -643,22 +643,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1491.684217186869</v>
+        <v>1491.684217187057</v>
       </c>
       <c r="C3" t="n">
-        <v>38.62232796177451</v>
+        <v>38.62232796177694</v>
       </c>
       <c r="D3" t="n">
-        <v>38.62232796177451</v>
+        <v>38.62232796177694</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4108758293805799</v>
+        <v>0.4108758293806057</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4108758293805799</v>
+        <v>0.4108758293806057</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5171097853485241</v>
+        <v>0.517109785348565</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>

--- a/modelos/OBACER4421132/OBACER4421132_Sell Out_metricas.xlsx
+++ b/modelos/OBACER4421132/OBACER4421132_Sell Out_metricas.xlsx
@@ -473,82 +473,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B2" t="n">
+        <v>77.80842107856637</v>
+      </c>
+      <c r="C2" t="n">
+        <v>59.13753674153089</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96.59045349844524</v>
+      </c>
+      <c r="E2" t="n">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>45033</v>
-      </c>
-      <c r="B2" t="n">
-        <v>76.86546288955698</v>
-      </c>
-      <c r="C2" t="n">
-        <v>58.04536247870207</v>
-      </c>
-      <c r="D2" t="n">
-        <v>94.99593430739536</v>
-      </c>
-      <c r="E2" t="n">
-        <v>84</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B3" t="n">
+        <v>72.92754824292498</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54.06641787329838</v>
+      </c>
+      <c r="D3" t="n">
+        <v>92.22807545342334</v>
+      </c>
+      <c r="E3" t="n">
+        <v>91</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>45040</v>
-      </c>
-      <c r="B3" t="n">
-        <v>77.80842107856594</v>
-      </c>
-      <c r="C3" t="n">
-        <v>58.41139869017385</v>
-      </c>
-      <c r="D3" t="n">
-        <v>95.33277238036386</v>
-      </c>
-      <c r="E3" t="n">
-        <v>44</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>45034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45047</v>
+        <v>45055</v>
       </c>
       <c r="B4" t="n">
-        <v>72.92754824292498</v>
+        <v>55.3776720382232</v>
       </c>
       <c r="C4" t="n">
-        <v>54.66148490722961</v>
+        <v>37.98515179580548</v>
       </c>
       <c r="D4" t="n">
-        <v>92.53061885099542</v>
+        <v>74.7343384888536</v>
       </c>
       <c r="E4" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45041</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45055</v>
+        <v>45061</v>
       </c>
       <c r="B5" t="n">
-        <v>55.37767203822306</v>
+        <v>73.78159430310644</v>
       </c>
       <c r="C5" t="n">
-        <v>35.61910579133785</v>
+        <v>53.63315517846126</v>
       </c>
       <c r="D5" t="n">
-        <v>74.50529349831635</v>
+        <v>92.60224141057361</v>
       </c>
       <c r="E5" t="n">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45048</v>
+        <v>45054</v>
       </c>
     </row>
   </sheetData>
@@ -614,28 +614,28 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>506.8414893725715</v>
+        <v>1491.684217187046</v>
       </c>
       <c r="C2" t="n">
-        <v>22.51314037118259</v>
+        <v>38.6223279617768</v>
       </c>
       <c r="D2" t="n">
-        <v>19.67180331536132</v>
+        <v>38.6223279617768</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3506355142961416</v>
+        <v>0.4108758293806043</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1985983709568683</v>
+        <v>0.4108758293806043</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2881010609599399</v>
+        <v>0.5171097853485629</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -643,25 +643,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1491.684217187057</v>
+        <v>1071.77482361561</v>
       </c>
       <c r="C3" t="n">
-        <v>38.62232796177694</v>
+        <v>32.737972197673</v>
       </c>
       <c r="D3" t="n">
-        <v>38.62232796177694</v>
+        <v>31.22082237958261</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4108758293806057</v>
+        <v>0.7575487997533328</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4108758293806057</v>
+        <v>0.7683732063310539</v>
       </c>
       <c r="G3" t="n">
-        <v>0.517109785348565</v>
+        <v>0.5218536318996982</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACER4421132/OBACER4421132_Sell Out_metricas.xlsx
+++ b/modelos/OBACER4421132/OBACER4421132_Sell Out_metricas.xlsx
@@ -473,82 +473,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="B2" t="n">
-        <v>77.80842107856637</v>
+        <v>76.86546288947162</v>
       </c>
       <c r="C2" t="n">
-        <v>59.13753674153089</v>
+        <v>58.67983429724879</v>
       </c>
       <c r="D2" t="n">
-        <v>96.59045349844524</v>
+        <v>95.62385269452571</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45033</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45047</v>
+        <v>45040</v>
       </c>
       <c r="B3" t="n">
-        <v>72.92754824292498</v>
+        <v>77.80842107856637</v>
       </c>
       <c r="C3" t="n">
-        <v>54.06641787329838</v>
+        <v>60.31589733673518</v>
       </c>
       <c r="D3" t="n">
-        <v>92.22807545342334</v>
+        <v>96.62284873068363</v>
       </c>
       <c r="E3" t="n">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45040</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45055</v>
+        <v>45047</v>
       </c>
       <c r="B4" t="n">
-        <v>55.3776720382232</v>
+        <v>72.92754824292498</v>
       </c>
       <c r="C4" t="n">
-        <v>37.98515179580548</v>
+        <v>53.2067052966348</v>
       </c>
       <c r="D4" t="n">
-        <v>74.7343384888536</v>
+        <v>92.66866848440222</v>
       </c>
       <c r="E4" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45054</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45061</v>
+        <v>45055</v>
       </c>
       <c r="B5" t="n">
-        <v>73.78159430310644</v>
+        <v>55.3776720382232</v>
       </c>
       <c r="C5" t="n">
-        <v>53.63315517846126</v>
+        <v>36.56345493977749</v>
       </c>
       <c r="D5" t="n">
-        <v>92.60224141057361</v>
+        <v>74.94776640141545</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45054</v>
+        <v>45048</v>
       </c>
     </row>
   </sheetData>
@@ -614,28 +614,28 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>1491.684217187046</v>
+        <v>506.841489372987</v>
       </c>
       <c r="C2" t="n">
-        <v>38.6223279617768</v>
+        <v>22.51314037119182</v>
       </c>
       <c r="D2" t="n">
-        <v>38.6223279617768</v>
+        <v>19.67180331538992</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4108758293806043</v>
+        <v>0.3506355142964835</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4108758293806043</v>
+        <v>0.1985983709568683</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5171097853485629</v>
+        <v>0.2881010609603111</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -643,25 +643,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1071.77482361561</v>
+        <v>1491.684217187046</v>
       </c>
       <c r="C3" t="n">
-        <v>32.737972197673</v>
+        <v>38.6223279617768</v>
       </c>
       <c r="D3" t="n">
-        <v>31.22082237958261</v>
+        <v>38.6223279617768</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7575487997533328</v>
+        <v>0.4108758293806043</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7683732063310539</v>
+        <v>0.4108758293806043</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5218536318996982</v>
+        <v>0.5171097853485629</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3333333333333334</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
